--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H2">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I2">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J2">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N2">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O2">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P2">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q2">
-        <v>0.6965115078264444</v>
+        <v>0.001529557806222222</v>
       </c>
       <c r="R2">
-        <v>6.268603570437999</v>
+        <v>0.013766020256</v>
       </c>
       <c r="S2">
-        <v>0.2254882647174714</v>
+        <v>0.009322167273112874</v>
       </c>
       <c r="T2">
-        <v>0.2254882647174714</v>
+        <v>0.00932216727311287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H3">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I3">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J3">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.693616</v>
       </c>
       <c r="O3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q3">
-        <v>0.01096465816355555</v>
+        <v>0.01648603450311111</v>
       </c>
       <c r="R3">
-        <v>0.098681923472</v>
+        <v>0.148374310528</v>
       </c>
       <c r="S3">
-        <v>0.00354969259622982</v>
+        <v>0.1004771252731483</v>
       </c>
       <c r="T3">
-        <v>0.003549692596229821</v>
+        <v>0.1004771252731482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H4">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I4">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J4">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.261745</v>
       </c>
       <c r="O4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q4">
-        <v>0.001694566212777778</v>
+        <v>0.002547883995555555</v>
       </c>
       <c r="R4">
-        <v>0.015251095915</v>
+        <v>0.02293095596</v>
       </c>
       <c r="S4">
-        <v>0.0005485979635290256</v>
+        <v>0.01552854079946115</v>
       </c>
       <c r="T4">
-        <v>0.0005485979635290257</v>
+        <v>0.01552854079946114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H5">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I5">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J5">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N5">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q5">
-        <v>0.3182889775462222</v>
+        <v>0.1018299906933333</v>
       </c>
       <c r="R5">
-        <v>2.864600797916</v>
+        <v>0.9164699162400002</v>
       </c>
       <c r="S5">
-        <v>0.1030427041321469</v>
+        <v>0.6206213343497948</v>
       </c>
       <c r="T5">
-        <v>0.1030427041321469</v>
+        <v>0.6206213343497947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H6">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I6">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J6">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N6">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O6">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P6">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q6">
-        <v>1.047247673256889</v>
+        <v>0.0005209274982222222</v>
       </c>
       <c r="R6">
-        <v>9.425229059311999</v>
+        <v>0.004688347484</v>
       </c>
       <c r="S6">
-        <v>0.3390354041802088</v>
+        <v>0.003174887052870386</v>
       </c>
       <c r="T6">
-        <v>0.3390354041802089</v>
+        <v>0.003174887052870386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H7">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I7">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J7">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.693616</v>
       </c>
       <c r="O7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q7">
-        <v>0.01648603450311111</v>
+        <v>0.005614713399111111</v>
       </c>
       <c r="R7">
-        <v>0.148374310528</v>
+        <v>0.050532420592</v>
       </c>
       <c r="S7">
-        <v>0.00533718003278875</v>
+        <v>0.03421988844369149</v>
       </c>
       <c r="T7">
-        <v>0.005337180032788751</v>
+        <v>0.03421988844369149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H8">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I8">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J8">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.261745</v>
       </c>
       <c r="O8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q8">
-        <v>0.002547883995555555</v>
+        <v>0.0008677428405555555</v>
       </c>
       <c r="R8">
-        <v>0.02293095596</v>
+        <v>0.007809685565</v>
       </c>
       <c r="S8">
-        <v>0.0008248506082147851</v>
+        <v>0.00528861601490186</v>
       </c>
       <c r="T8">
-        <v>0.0008248506082147852</v>
+        <v>0.00528861601490186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H9">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I9">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J9">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,524 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N9">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q9">
-        <v>0.4785669546204445</v>
+        <v>0.03468063912333334</v>
       </c>
       <c r="R9">
-        <v>4.307102591584</v>
+        <v>0.31212575211</v>
       </c>
       <c r="S9">
-        <v>0.1549310110973472</v>
+        <v>0.2113674407930192</v>
       </c>
       <c r="T9">
-        <v>0.1549310110973472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.022676</v>
-      </c>
-      <c r="I10">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J10">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>35.86137133333333</v>
-      </c>
-      <c r="N10">
-        <v>107.584114</v>
-      </c>
-      <c r="O10">
-        <v>0.6778966622414776</v>
-      </c>
-      <c r="P10">
-        <v>0.6778966622414775</v>
-      </c>
-      <c r="Q10">
-        <v>0.2710641521182222</v>
-      </c>
-      <c r="R10">
-        <v>2.439577369064</v>
-      </c>
-      <c r="S10">
-        <v>0.08775416429082293</v>
-      </c>
-      <c r="T10">
-        <v>0.08775416429082292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.022676</v>
-      </c>
-      <c r="I11">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J11">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.5645386666666666</v>
-      </c>
-      <c r="N11">
-        <v>1.693616</v>
-      </c>
-      <c r="O11">
-        <v>0.01067161861386675</v>
-      </c>
-      <c r="P11">
-        <v>0.01067161861386675</v>
-      </c>
-      <c r="Q11">
-        <v>0.004267159601777777</v>
-      </c>
-      <c r="R11">
-        <v>0.038404436416</v>
-      </c>
-      <c r="S11">
-        <v>0.001381447977622109</v>
-      </c>
-      <c r="T11">
-        <v>0.001381447977622109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.022676</v>
-      </c>
-      <c r="I12">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J12">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.08724833333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.261745</v>
-      </c>
-      <c r="O12">
-        <v>0.001649277530494842</v>
-      </c>
-      <c r="P12">
-        <v>0.001649277530494842</v>
-      </c>
-      <c r="Q12">
-        <v>0.0006594810688888888</v>
-      </c>
-      <c r="R12">
-        <v>0.00593532962</v>
-      </c>
-      <c r="S12">
-        <v>0.0002135000501310207</v>
-      </c>
-      <c r="T12">
-        <v>0.0002135000501310207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.022676</v>
-      </c>
-      <c r="I13">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J13">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.38778266666667</v>
-      </c>
-      <c r="N13">
-        <v>49.163348</v>
-      </c>
-      <c r="O13">
-        <v>0.3097824416141609</v>
-      </c>
-      <c r="P13">
-        <v>0.3097824416141609</v>
-      </c>
-      <c r="Q13">
-        <v>0.1238697865831111</v>
-      </c>
-      <c r="R13">
-        <v>1.114828079248</v>
-      </c>
-      <c r="S13">
-        <v>0.04010153875951334</v>
-      </c>
-      <c r="T13">
-        <v>0.04010153875951334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.00662</v>
-      </c>
-      <c r="I14">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J14">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>35.86137133333333</v>
-      </c>
-      <c r="N14">
-        <v>107.584114</v>
-      </c>
-      <c r="O14">
-        <v>0.6778966622414776</v>
-      </c>
-      <c r="P14">
-        <v>0.6778966622414775</v>
-      </c>
-      <c r="Q14">
-        <v>0.07913409274222222</v>
-      </c>
-      <c r="R14">
-        <v>0.7122068346799999</v>
-      </c>
-      <c r="S14">
-        <v>0.02561882905297442</v>
-      </c>
-      <c r="T14">
-        <v>0.02561882905297442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.00662</v>
-      </c>
-      <c r="I15">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J15">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.5645386666666666</v>
-      </c>
-      <c r="N15">
-        <v>1.693616</v>
-      </c>
-      <c r="O15">
-        <v>0.01067161861386675</v>
-      </c>
-      <c r="P15">
-        <v>0.01067161861386675</v>
-      </c>
-      <c r="Q15">
-        <v>0.001245748657777778</v>
-      </c>
-      <c r="R15">
-        <v>0.01121173792</v>
-      </c>
-      <c r="S15">
-        <v>0.0004032980072260698</v>
-      </c>
-      <c r="T15">
-        <v>0.0004032980072260699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.00662</v>
-      </c>
-      <c r="I16">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J16">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.08724833333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.261745</v>
-      </c>
-      <c r="O16">
-        <v>0.001649277530494842</v>
-      </c>
-      <c r="P16">
-        <v>0.001649277530494842</v>
-      </c>
-      <c r="Q16">
-        <v>0.0001925279888888889</v>
-      </c>
-      <c r="R16">
-        <v>0.0017327519</v>
-      </c>
-      <c r="S16">
-        <v>6.232890862001047E-05</v>
-      </c>
-      <c r="T16">
-        <v>6.232890862001048E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.00662</v>
-      </c>
-      <c r="I17">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J17">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>16.38778266666667</v>
-      </c>
-      <c r="N17">
-        <v>49.163348</v>
-      </c>
-      <c r="O17">
-        <v>0.3097824416141609</v>
-      </c>
-      <c r="P17">
-        <v>0.3097824416141609</v>
-      </c>
-      <c r="Q17">
-        <v>0.03616237375111111</v>
-      </c>
-      <c r="R17">
-        <v>0.32546136376</v>
-      </c>
-      <c r="S17">
-        <v>0.01170718762515339</v>
-      </c>
-      <c r="T17">
-        <v>0.01170718762515339</v>
+        <v>0.2113674407930192</v>
       </c>
     </row>
   </sheetData>
